--- a/data/Output/定楽屋/店舗情報まとめ.xlsx
+++ b/data/Output/定楽屋/店舗情報まとめ.xlsx
@@ -1661,7 +1661,7 @@
         <v>5452.45</v>
       </c>
       <c r="H3" t="n">
-        <v>654294</v>
+        <v>2726.225</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1687,7 +1687,7 @@
         <v>6267.669950738917</v>
       </c>
       <c r="H4" t="n">
-        <v>636168.5</v>
+        <v>3133.834975369458</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1713,7 +1713,7 @@
         <v>5751.875</v>
       </c>
       <c r="H5" t="n">
-        <v>483157.5</v>
+        <v>2875.9375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1739,7 +1739,7 @@
         <v>9886.222222222223</v>
       </c>
       <c r="H6" t="n">
-        <v>385562.6666666667</v>
+        <v>3295.407407407407</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1765,7 +1765,7 @@
         <v>10516.84337349398</v>
       </c>
       <c r="H7" t="n">
-        <v>218224.5</v>
+        <v>2629.210843373494</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1791,7 +1791,7 @@
         <v>8236.491525423729</v>
       </c>
       <c r="H8" t="n">
-        <v>161984.3333333333</v>
+        <v>2745.497175141243</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1817,7 +1817,7 @@
         <v>9105.979166666666</v>
       </c>
       <c r="H9" t="n">
-        <v>145695.6666666667</v>
+        <v>3035.326388888889</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1843,7 +1843,7 @@
         <v>16321.46666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>146893.2</v>
+        <v>3264.293333333334</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1869,7 +1869,7 @@
         <v>10516.6511627907</v>
       </c>
       <c r="H11" t="n">
-        <v>113054</v>
+        <v>2629.162790697675</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1895,7 +1895,7 @@
         <v>20506.16666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>143543.1666666667</v>
+        <v>3417.694444444445</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1921,7 +1921,7 @@
         <v>10020.68292682927</v>
       </c>
       <c r="H13" t="n">
-        <v>102712</v>
+        <v>2505.170731707317</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1947,7 +1947,7 @@
         <v>8555.911764705883</v>
       </c>
       <c r="H14" t="n">
-        <v>96967</v>
+        <v>2851.970588235294</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1973,7 +1973,7 @@
         <v>9316.392857142857</v>
       </c>
       <c r="H15" t="n">
-        <v>65214.75</v>
+        <v>2329.098214285714</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1999,7 +1999,7 @@
         <v>24448</v>
       </c>
       <c r="H16" t="n">
-        <v>79456</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2025,7 +2025,7 @@
         <v>17067.78947368421</v>
       </c>
       <c r="H17" t="n">
-        <v>46326.85714285714</v>
+        <v>2438.255639097744</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2051,7 +2051,7 @@
         <v>9467.058823529413</v>
       </c>
       <c r="H18" t="n">
-        <v>32188</v>
+        <v>1893.411764705882</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2077,7 +2077,7 @@
         <v>15571.58823529412</v>
       </c>
       <c r="H19" t="n">
-        <v>44119.5</v>
+        <v>2595.264705882353</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2103,7 +2103,7 @@
         <v>26417.58823529412</v>
       </c>
       <c r="H20" t="n">
-        <v>26417.58823529412</v>
+        <v>1553.975778546713</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2129,7 +2129,7 @@
         <v>25530.94117647059</v>
       </c>
       <c r="H21" t="n">
-        <v>43402.6</v>
+        <v>2553.094117647059</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2155,7 +2155,7 @@
         <v>27268.8</v>
       </c>
       <c r="H22" t="n">
-        <v>45448</v>
+        <v>3029.866666666667</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2181,7 +2181,7 @@
         <v>8128</v>
       </c>
       <c r="H23" t="n">
-        <v>10160</v>
+        <v>677.3333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2207,7 +2207,7 @@
         <v>10439.5</v>
       </c>
       <c r="H24" t="n">
-        <v>24358.83333333333</v>
+        <v>1739.916666666667</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2233,7 +2233,7 @@
         <v>15244.30769230769</v>
       </c>
       <c r="H25" t="n">
-        <v>28310.85714285714</v>
+        <v>2177.758241758242</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2259,7 +2259,7 @@
         <v>11251</v>
       </c>
       <c r="H26" t="n">
-        <v>3970.941176470588</v>
+        <v>330.9117647058824</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2285,7 +2285,7 @@
         <v>15141.18181818182</v>
       </c>
       <c r="H27" t="n">
-        <v>20819.125</v>
+        <v>1892.647727272727</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2311,7 +2311,7 @@
         <v>10906.09090909091</v>
       </c>
       <c r="H28" t="n">
-        <v>29991.75</v>
+        <v>2726.522727272727</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2337,7 +2337,7 @@
         <v>10626.81818181818</v>
       </c>
       <c r="H29" t="n">
-        <v>23379</v>
+        <v>2125.363636363636</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2363,7 +2363,7 @@
         <v>10301.3</v>
       </c>
       <c r="H30" t="n">
-        <v>6867.533333333334</v>
+        <v>686.7533333333333</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2389,7 +2389,7 @@
         <v>7760.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3695.666666666667</v>
+        <v>369.5666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2415,7 +2415,7 @@
         <v>11890.77777777778</v>
       </c>
       <c r="H32" t="n">
-        <v>8232.076923076924</v>
+        <v>914.6752136752136</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2441,7 +2441,7 @@
         <v>12396.66666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>7969.285714285715</v>
+        <v>885.4761904761905</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2467,7 +2467,7 @@
         <v>13575</v>
       </c>
       <c r="H34" t="n">
-        <v>18100</v>
+        <v>2262.5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2493,7 +2493,7 @@
         <v>4824.5</v>
       </c>
       <c r="H35" t="n">
-        <v>38596</v>
+        <v>4824.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2519,7 +2519,7 @@
         <v>16518.125</v>
       </c>
       <c r="H36" t="n">
-        <v>13214.5</v>
+        <v>1651.8125</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2545,7 +2545,7 @@
         <v>82.75</v>
       </c>
       <c r="H37" t="n">
-        <v>21.35483870967742</v>
+        <v>2.669354838709677</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2571,7 +2571,7 @@
         <v>47.5</v>
       </c>
       <c r="H38" t="n">
-        <v>10.85714285714286</v>
+        <v>1.357142857142857</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2597,7 +2597,7 @@
         <v>5927.75</v>
       </c>
       <c r="H39" t="n">
-        <v>6774.571428571428</v>
+        <v>846.8214285714286</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2623,7 +2623,7 @@
         <v>22751.71428571429</v>
       </c>
       <c r="H40" t="n">
-        <v>22751.71428571429</v>
+        <v>3250.244897959184</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2649,7 +2649,7 @@
         <v>19925.71428571429</v>
       </c>
       <c r="H41" t="n">
-        <v>27896</v>
+        <v>3985.142857142857</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2675,7 +2675,7 @@
         <v>37160</v>
       </c>
       <c r="H42" t="n">
-        <v>14451.11111111111</v>
+        <v>2064.444444444444</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2701,7 +2701,7 @@
         <v>27688.57142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>19382</v>
+        <v>2768.857142857143</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2727,7 +2727,7 @@
         <v>31842.85714285714</v>
       </c>
       <c r="H44" t="n">
-        <v>7960.714285714285</v>
+        <v>1137.244897959184</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2753,7 +2753,7 @@
         <v>31860</v>
       </c>
       <c r="H45" t="n">
-        <v>7434</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2779,7 +2779,7 @@
         <v>13410.71428571429</v>
       </c>
       <c r="H46" t="n">
-        <v>8534.09090909091</v>
+        <v>1219.155844155844</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2805,7 +2805,7 @@
         <v>23028.85714285714</v>
       </c>
       <c r="H47" t="n">
-        <v>23028.85714285714</v>
+        <v>3289.836734693877</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2831,7 +2831,7 @@
         <v>19880</v>
       </c>
       <c r="H48" t="n">
-        <v>3313.333333333333</v>
+        <v>552.2222222222222</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2857,7 +2857,7 @@
         <v>23383.33333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>8768.75</v>
+        <v>1461.458333333333</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2883,7 +2883,7 @@
         <v>15763.33333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>3261.379310344827</v>
+        <v>543.5632183908046</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2909,7 +2909,7 @@
         <v>28511.33333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>8553.4</v>
+        <v>1425.566666666667</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2935,7 +2935,7 @@
         <v>17993.33333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>3998.518518518519</v>
+        <v>666.4197530864197</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2961,7 +2961,7 @@
         <v>22850</v>
       </c>
       <c r="H53" t="n">
-        <v>27420</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2987,7 +2987,7 @@
         <v>34304</v>
       </c>
       <c r="H54" t="n">
-        <v>19057.77777777778</v>
+        <v>3811.555555555556</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3013,7 +3013,7 @@
         <v>28372</v>
       </c>
       <c r="H55" t="n">
-        <v>15762.22222222222</v>
+        <v>3152.444444444444</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3039,7 +3039,7 @@
         <v>4643.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3869.5</v>
+        <v>773.9</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3065,7 +3065,7 @@
         <v>14812</v>
       </c>
       <c r="H57" t="n">
-        <v>14812</v>
+        <v>2962.4</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3091,7 +3091,7 @@
         <v>46535</v>
       </c>
       <c r="H58" t="n">
-        <v>8460.90909090909</v>
+        <v>2115.227272727273</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3117,7 +3117,7 @@
         <v>26972</v>
       </c>
       <c r="H59" t="n">
-        <v>9808</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3143,7 +3143,7 @@
         <v>76.5</v>
       </c>
       <c r="H60" t="n">
-        <v>21.85714285714286</v>
+        <v>5.464285714285714</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3169,7 +3169,7 @@
         <v>26645</v>
       </c>
       <c r="H61" t="n">
-        <v>10658</v>
+        <v>2664.5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3195,7 +3195,7 @@
         <v>10410</v>
       </c>
       <c r="H62" t="n">
-        <v>4626.666666666667</v>
+        <v>1156.666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3221,7 +3221,7 @@
         <v>27455</v>
       </c>
       <c r="H63" t="n">
-        <v>4223.846153846154</v>
+        <v>1055.961538461539</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3247,7 +3247,7 @@
         <v>16356</v>
       </c>
       <c r="H64" t="n">
-        <v>10904</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3273,7 +3273,7 @@
         <v>45</v>
       </c>
       <c r="H65" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3299,7 +3299,7 @@
         <v>23780</v>
       </c>
       <c r="H66" t="n">
-        <v>3963.333333333333</v>
+        <v>990.8333333333334</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3325,7 +3325,7 @@
         <v>25566.25</v>
       </c>
       <c r="H67" t="n">
-        <v>12783.125</v>
+        <v>3195.78125</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3351,7 +3351,7 @@
         <v>42</v>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3377,7 +3377,7 @@
         <v>24406.66666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>7322</v>
+        <v>2440.666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3403,7 +3403,7 @@
         <v>23953.33333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>3593</v>
+        <v>1197.666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3429,7 +3429,7 @@
         <v>19400</v>
       </c>
       <c r="H71" t="n">
-        <v>4157.142857142857</v>
+        <v>1385.714285714286</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3455,7 +3455,7 @@
         <v>18736.66666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>3122.777777777778</v>
+        <v>1040.925925925926</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3481,7 +3481,7 @@
         <v>35140</v>
       </c>
       <c r="H73" t="n">
-        <v>8785</v>
+        <v>2928.333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3507,7 +3507,7 @@
         <v>8000</v>
       </c>
       <c r="H74" t="n">
-        <v>4000</v>
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3533,7 +3533,7 @@
         <v>30500.66666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>7625.166666666667</v>
+        <v>2541.722222222222</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3559,7 +3559,7 @@
         <v>15486.66666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>4223.636363636364</v>
+        <v>1407.878787878788</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3585,7 +3585,7 @@
         <v>1540.333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>4621</v>
+        <v>1540.333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3611,7 +3611,7 @@
         <v>26497</v>
       </c>
       <c r="H78" t="n">
-        <v>4817.636363636364</v>
+        <v>2408.818181818182</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3663,7 +3663,7 @@
         <v>19400</v>
       </c>
       <c r="H80" t="n">
-        <v>3880</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3689,7 +3689,7 @@
         <v>21133.5</v>
       </c>
       <c r="H81" t="n">
-        <v>4696.333333333333</v>
+        <v>2348.166666666667</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3715,7 +3715,7 @@
         <v>22489.5</v>
       </c>
       <c r="H82" t="n">
-        <v>4497.9</v>
+        <v>2248.95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3741,7 +3741,7 @@
         <v>15934</v>
       </c>
       <c r="H83" t="n">
-        <v>2897.090909090909</v>
+        <v>1448.545454545455</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3767,7 +3767,7 @@
         <v>45790</v>
       </c>
       <c r="H84" t="n">
-        <v>10175.55555555555</v>
+        <v>5087.777777777777</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3793,7 +3793,7 @@
         <v>27370</v>
       </c>
       <c r="H85" t="n">
-        <v>6842.5</v>
+        <v>3421.25</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3819,7 +3819,7 @@
         <v>26010</v>
       </c>
       <c r="H86" t="n">
-        <v>4729.090909090909</v>
+        <v>2364.545454545455</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3845,7 +3845,7 @@
         <v>-5647.5</v>
       </c>
       <c r="H87" t="n">
-        <v>5647.5</v>
+        <v>2823.75</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3871,7 +3871,7 @@
         <v>15946</v>
       </c>
       <c r="H88" t="n">
-        <v>3543.555555555556</v>
+        <v>1771.777777777778</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3897,7 +3897,7 @@
         <v>91.5</v>
       </c>
       <c r="H89" t="n">
-        <v>8.714285714285714</v>
+        <v>4.357142857142857</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3923,7 +3923,7 @@
         <v>14662</v>
       </c>
       <c r="H90" t="n">
-        <v>4189.142857142857</v>
+        <v>2094.571428571428</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3949,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="H91" t="n">
-        <v>19.75</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3975,7 +3975,7 @@
         <v>52.5</v>
       </c>
       <c r="H92" t="n">
-        <v>8.75</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4001,7 +4001,7 @@
         <v>27668.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4611.416666666667</v>
+        <v>2305.708333333333</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4027,7 +4027,7 @@
         <v>41100</v>
       </c>
       <c r="H94" t="n">
-        <v>3161.538461538461</v>
+        <v>1580.769230769231</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4053,7 +4053,7 @@
         <v>61</v>
       </c>
       <c r="H95" t="n">
-        <v>17.42857142857143</v>
+        <v>8.714285714285714</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4079,7 +4079,7 @@
         <v>36810.5</v>
       </c>
       <c r="H96" t="n">
-        <v>3874.78947368421</v>
+        <v>1937.394736842105</v>
       </c>
     </row>
     <row r="97" spans="1:8">

--- a/data/Output/定楽屋/店舗情報まとめ.xlsx
+++ b/data/Output/定楽屋/店舗情報まとめ.xlsx
@@ -5370,19 +5370,19 @@
         <v>158</v>
       </c>
       <c r="B7" t="n">
-        <v>105690</v>
+        <v>105696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005245553340115643</v>
+        <v>0.005245851129121611</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01992846193152785</v>
+        <v>0.02043944813490036</v>
       </c>
       <c r="F7" t="n">
-        <v>2710</v>
+        <v>2642.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5410,19 +5410,19 @@
         <v>160</v>
       </c>
       <c r="B9" t="n">
-        <v>35291</v>
+        <v>35285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001751545301599216</v>
+        <v>0.001751247512593249</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006131834440470108</v>
+        <v>0.005620848237097598</v>
       </c>
       <c r="F9" t="n">
-        <v>2940.916666666667</v>
+        <v>3207.727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
